--- a/storage/uplus.xlsx
+++ b/storage/uplus.xlsx
@@ -20,24 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="137">
-  <si>
-    <t xml:space="preserve">MONEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DETAILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">details</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Money from quitclaim from deigh</t>
   </si>
   <si>
-    <t xml:space="preserve">earning</t>
+    <t xml:space="preserve">revenue</t>
   </si>
   <si>
     <t xml:space="preserve">company</t>
@@ -49,9 +49,15 @@
     <t xml:space="preserve">from the renewal rent of 3108B</t>
   </si>
   <si>
+    <t xml:space="preserve">3108B</t>
+  </si>
+  <si>
     <t xml:space="preserve">from the payment advance of 3102B</t>
   </si>
   <si>
+    <t xml:space="preserve">3102B</t>
+  </si>
+  <si>
     <t xml:space="preserve">deposit for 3102B</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t xml:space="preserve">got from sybil 905 payment</t>
   </si>
   <si>
+    <t xml:space="preserve">905B</t>
+  </si>
+  <si>
     <t xml:space="preserve">from security bank</t>
   </si>
   <si>
@@ -91,9 +100,6 @@
     <t xml:space="preserve">3108B payment</t>
   </si>
   <si>
-    <t xml:space="preserve">3108B</t>
-  </si>
-  <si>
     <t xml:space="preserve">1409 payment</t>
   </si>
   <si>
@@ -130,7 +136,7 @@
     <t xml:space="preserve">Millenia 15Q</t>
   </si>
   <si>
-    <t xml:space="preserve">expense</t>
+    <t xml:space="preserve">expenses</t>
   </si>
   <si>
     <t xml:space="preserve">15Q</t>
@@ -169,7 +175,7 @@
     <t xml:space="preserve">Josie's refund for washing machine and A1501 Realty Tax</t>
   </si>
   <si>
-    <t xml:space="preserve">A1501</t>
+    <t xml:space="preserve">1501A</t>
   </si>
   <si>
     <t xml:space="preserve">Bought some cleaning tools to clean 3102 in bsa and clean it</t>
@@ -238,9 +244,6 @@
     <t xml:space="preserve">2 access card in bsa for 3102 and 1501 because I gave to sybill and the tenant of 3102 lost the card.</t>
   </si>
   <si>
-    <t xml:space="preserve">3102B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transpo to china bank again</t>
   </si>
   <si>
@@ -334,7 +337,7 @@
     <t xml:space="preserve">Fare</t>
   </si>
   <si>
-    <t xml:space="preserve">Grab expenses for working on January - July</t>
+    <t xml:space="preserve">Grab expensess for working on January - July</t>
   </si>
   <si>
     <t xml:space="preserve">Meralco</t>
@@ -358,7 +361,16 @@
     <t xml:space="preserve">Printing documents, contracts and notarization fee</t>
   </si>
   <si>
-    <t xml:space="preserve">all units</t>
+    <t xml:space="preserve">1110 Dues 1 of 4 payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110 Dues 2 of 4 payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110 Dues 3 of 4 payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110 of Dues 4 of 4 payment</t>
   </si>
   <si>
     <t xml:space="preserve">Dues for 32DE from August 2021 - February 2022</t>
@@ -424,13 +436,19 @@
     <t xml:space="preserve">Jose take 500 for cleaning</t>
   </si>
   <si>
-    <t xml:space="preserve">4713 first time cleaning ½</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 people helped to carry things</t>
+    <t xml:space="preserve">4713A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 people helped to carry things and cleaning</t>
   </si>
   <si>
     <t xml:space="preserve">locksmith for the door problem in 905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment for dues 1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client paid 1110 for november</t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -562,7 +580,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,16 +607,16 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="C133"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D104" activeCellId="0" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="79"/>
   </cols>
@@ -609,7 +631,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
@@ -624,7 +646,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -638,7 +660,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -652,8 +674,8 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>3108</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -661,13 +683,13 @@
         <v>56000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>3102</v>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -675,13 +697,13 @@
         <v>28000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>3102</v>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -689,12 +711,12 @@
         <v>300000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -703,12 +725,12 @@
         <v>9500</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -717,12 +739,12 @@
         <v>22000</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -731,12 +753,12 @@
         <v>11400</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -745,12 +767,12 @@
         <v>180000</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -759,12 +781,12 @@
         <v>71000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -773,23 +795,26 @@
         <v>360000</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>905</v>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>270000</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -797,10 +822,13 @@
       <c r="A15" s="2" t="n">
         <v>60000</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -809,12 +837,12 @@
         <v>5000</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -823,13 +851,13 @@
         <v>30000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>3108</v>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -837,13 +865,13 @@
         <v>135000</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>21</v>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -851,13 +879,13 @@
         <v>120000</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>23</v>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -865,12 +893,12 @@
         <v>20000</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -879,12 +907,12 @@
         <v>60000</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -893,13 +921,13 @@
         <v>50000</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>23</v>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -907,13 +935,13 @@
         <v>25000</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>23</v>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -921,13 +949,13 @@
         <v>10000</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>29</v>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -935,7 +963,7 @@
         <v>54000</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -950,7 +978,7 @@
         <v>20000</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -965,12 +993,12 @@
         <v>15000</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -979,12 +1007,12 @@
         <v>15000</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -993,13 +1021,13 @@
         <v>50000</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>23</v>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1007,13 +1035,13 @@
         <v>21890</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1021,13 +1049,13 @@
         <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1035,12 +1063,12 @@
         <v>170</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1049,13 +1077,13 @@
         <v>122708.97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1063,13 +1091,13 @@
         <v>1900</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1077,13 +1105,13 @@
         <v>4000</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1091,13 +1119,13 @@
         <v>1000</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1105,13 +1133,13 @@
         <v>500</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1119,7 +1147,7 @@
         <v>378000</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -1130,10 +1158,10 @@
         <v>2500</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>6</v>
@@ -1144,10 +1172,10 @@
         <v>5000</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>6</v>
@@ -1158,13 +1186,13 @@
         <v>11000</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1172,13 +1200,13 @@
         <v>400</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5" t="n">
-        <v>3102</v>
+        <v>38</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,10 +1214,10 @@
         <v>20000</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>6</v>
@@ -1200,13 +1228,13 @@
         <v>1200</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1214,13 +1242,13 @@
         <v>1000</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1228,13 +1256,13 @@
         <v>1500</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1242,12 +1270,12 @@
         <v>5000</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1256,10 +1284,10 @@
         <v>106000</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -1270,12 +1298,12 @@
         <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1284,12 +1312,12 @@
         <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1298,12 +1326,12 @@
         <v>20000</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1312,12 +1340,12 @@
         <v>20000</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1326,12 +1354,12 @@
         <v>2750</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -1340,12 +1368,12 @@
         <v>20000</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1354,12 +1382,12 @@
         <v>45000</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1368,12 +1396,12 @@
         <v>20000</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1382,12 +1410,12 @@
         <v>5000</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1396,12 +1424,12 @@
         <v>1000</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1410,12 +1438,12 @@
         <v>360000</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1424,12 +1452,12 @@
         <v>80000</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1438,12 +1466,12 @@
         <v>190000</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1452,13 +1480,13 @@
         <v>1100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1466,13 +1494,13 @@
         <v>300</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1480,12 +1508,12 @@
         <v>1000</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1494,12 +1522,12 @@
         <v>21000</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1508,12 +1536,12 @@
         <v>5000</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1522,12 +1550,12 @@
         <v>35000</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1536,12 +1564,12 @@
         <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1550,12 +1578,12 @@
         <v>946</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1564,13 +1592,13 @@
         <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>905</v>
+        <v>38</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1578,12 +1606,12 @@
         <v>400</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1592,12 +1620,12 @@
         <v>400</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1606,12 +1634,12 @@
         <v>3500</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D73" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -1620,13 +1648,13 @@
         <v>8600</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1634,13 +1662,13 @@
         <v>10000</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1648,13 +1676,13 @@
         <v>54000</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1662,12 +1690,12 @@
         <v>40587</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D77" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -1676,12 +1704,12 @@
         <v>850</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1690,12 +1718,12 @@
         <v>18000</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1704,12 +1732,12 @@
         <v>5000</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1718,12 +1746,12 @@
         <v>5000</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1732,12 +1760,12 @@
         <v>5000</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1746,12 +1774,12 @@
         <v>5000</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1760,12 +1788,12 @@
         <v>5000</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1774,12 +1802,12 @@
         <v>5000</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1788,12 +1816,12 @@
         <v>1000</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1802,12 +1830,12 @@
         <v>5000</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D87" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -1816,12 +1844,12 @@
         <v>130000</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1830,12 +1858,12 @@
         <v>5000</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1844,12 +1872,12 @@
         <v>10000</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1858,12 +1886,12 @@
         <v>700</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1872,12 +1900,12 @@
         <v>400</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1886,12 +1914,12 @@
         <v>400</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1900,12 +1928,12 @@
         <v>500</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1914,12 +1942,12 @@
         <v>500</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1928,12 +1956,12 @@
         <v>3100</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1942,12 +1970,12 @@
         <v>37800</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D97" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -1956,12 +1984,12 @@
         <v>5000</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1970,13 +1998,13 @@
         <v>16000</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1984,12 +2012,12 @@
         <v>10000</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1998,12 +2026,12 @@
         <v>5000</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D101" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2012,13 +2040,13 @@
         <v>2500</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2026,26 +2054,26 @@
         <v>1000</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>112</v>
+        <v>38</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>9943</v>
       </c>
-      <c r="B104" s="7" t="n">
-        <v>44563</v>
+      <c r="B104" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D104" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -2053,42 +2081,42 @@
       <c r="A105" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="B105" s="7" t="n">
-        <v>44594</v>
+      <c r="B105" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>1111</v>
+        <v>38</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>1110</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>13150</v>
       </c>
-      <c r="B106" s="7" t="n">
-        <v>44623</v>
+      <c r="B106" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>1112</v>
+        <v>38</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>1110</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="B107" s="7" t="n">
-        <v>44655</v>
+      <c r="B107" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>1113</v>
+        <v>38</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>1110</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2096,13 +2124,13 @@
         <v>40000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2110,12 +2138,12 @@
         <v>35989</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D109" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2124,12 +2152,12 @@
         <v>9013</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D110" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2138,12 +2166,12 @@
         <v>5500</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D111" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2152,12 +2180,12 @@
         <v>8500</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D112" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2166,12 +2194,12 @@
         <v>8756.48</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D113" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2180,12 +2208,12 @@
         <v>999</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D114" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2194,12 +2222,12 @@
         <v>500</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D115" s="1" t="n">
         <v>1409</v>
       </c>
     </row>
@@ -2208,12 +2236,12 @@
         <v>500</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D116" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -2222,13 +2250,13 @@
         <v>12000</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2236,13 +2264,13 @@
         <v>20000</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2250,12 +2278,12 @@
         <v>29000</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2264,24 +2292,27 @@
         <v>1000</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>25000</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="B121" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2289,10 +2320,13 @@
         <v>25000</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2300,10 +2334,13 @@
         <v>25000</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2311,10 +2348,13 @@
         <v>10000</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>36</v>
+        <v>132</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>1110</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2322,10 +2362,13 @@
         <v>2000</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>36</v>
+        <v>133</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2333,10 +2376,13 @@
         <v>11800</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>36</v>
+        <v>134</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2344,10 +2390,13 @@
         <v>38000</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2355,10 +2404,13 @@
         <v>7221</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>36</v>
+        <v>136</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2366,48 +2418,78 @@
         <v>500</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>36</v>
+        <v>3500</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>36</v>
+        <v>140</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>141</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>1110</v>
+      </c>
+    </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0"/>
+      <c r="B135" s="0"/>
+      <c r="C135" s="0"/>
+      <c r="D135" s="0"/>
+    </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
